--- a/medicine/Pharmacie/Lanoline/Lanoline.xlsx
+++ b/medicine/Pharmacie/Lanoline/Lanoline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La lanoline, autrement appelée graisse de laine ou cire de laine, est une graisse obtenue par purification et raffinage du suint (partie grasse adsorbée sur la laine). 
 Elle comprend de l'oléine et de la stéarine.
 Chimiquement, la lanoline est une cire, un mélange d'esters et d'acides gras avec des alcools à haute masse moléculaire. Ont été identifiés plus de 180 acides gras et 80 alcools différents. Elle est amphiphile et forme des émulsions très stables avec l'eau, de plus il s'agit d'une espèce très hygroscopique.  
-La lanoline est utilisée en pharmacie, par exemple pour la supplémentation en vitamine D[2],[3], dans la fabrication des cosmétiques et dans la prévention des douleurs et lésions liées à l'allaitement maternel (bien que les autorités sanitaires ne recommandent pas de traitements topiques malgré le manque d’informations à ce sujet et soulignent les risques liées au nettoyage des mamelons[4]). C'est l'un des rares produits d'origine animale qui soit autorisé par les labels de cosmétiques biologiques, tels que Nature et Progrès et BDIH.
-Son code FAO est 0994[5].
+La lanoline est utilisée en pharmacie, par exemple pour la supplémentation en vitamine D dans la fabrication des cosmétiques et dans la prévention des douleurs et lésions liées à l'allaitement maternel (bien que les autorités sanitaires ne recommandent pas de traitements topiques malgré le manque d’informations à ce sujet et soulignent les risques liées au nettoyage des mamelons). C'est l'un des rares produits d'origine animale qui soit autorisé par les labels de cosmétiques biologiques, tels que Nature et Progrès et BDIH.
+Son code FAO est 0994.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Codex Alimentarius reprend la lanoline comme additif alimentaire, sous le code E (numéro SIN) 913.
 </t>
